--- a/assets/images/mypage/test.xlsx
+++ b/assets/images/mypage/test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\p_22_classlink_web_dev\assets\images\mypage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="9585" yWindow="-15" windowWidth="9660" windowHeight="5955" tabRatio="943" firstSheet="36" activeTab="39"/>
   </bookViews>
@@ -79,16 +84,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="39" hidden="1">사원명부!$A$1:$G$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="51" hidden="1">시나리오!$C$1:$C$65536</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">정렬!$A$1:$G$26</definedName>
-    <definedName name="기본급표" localSheetId="52">미리보기!#REF!</definedName>
-    <definedName name="사번" localSheetId="52">[1]사원명부!$A$2:$A$26</definedName>
-    <definedName name="사번">사원명부!$A$2:$A$26</definedName>
     <definedName name="_xlnm.Extract" localSheetId="49">레코드관리!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="51">시나리오!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="54">견적서!$B$2:$G$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="53">견적서예시!$B$2:$I$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="24">함수통합2!$A$1:$B$28</definedName>
+    <definedName name="기본급표" localSheetId="52">미리보기!#REF!</definedName>
+    <definedName name="사번" localSheetId="52">[1]사원명부!$A$2:$A$26</definedName>
+    <definedName name="사번">사원명부!$A$2:$A$26</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -98,7 +103,7 @@
     <author>박은정</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +139,7 @@
     <author>박은정</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +176,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +212,7 @@
     <author>박은정</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +251,7 @@
     <author>박은정</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +290,7 @@
     <author>박은정</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +323,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="2094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3193" uniqueCount="2092">
   <si>
     <t>1사분기</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -6574,14 +6579,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>인원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>소속</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -8423,7 +8420,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="92">
     <numFmt numFmtId="6" formatCode="&quot;₩&quot;#,##0;[Red]\-&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
@@ -14360,6 +14357,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
@@ -14396,9 +14405,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -14412,15 +14418,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14553,6 +14550,69 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="27" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="35" fillId="0" borderId="5" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="35" fillId="0" borderId="190" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="27" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="35" fillId="0" borderId="3" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="35" fillId="0" borderId="68" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="64" xfId="27" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="35" fillId="0" borderId="64" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="35" fillId="0" borderId="65" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="27" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="35" fillId="0" borderId="67" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="35" fillId="0" borderId="180" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="149" xfId="27" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="35" fillId="0" borderId="192" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="35" fillId="0" borderId="193" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="35" fillId="0" borderId="5" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="35" fillId="0" borderId="190" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="187" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="188" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14590,69 +14650,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="221" fontId="35" fillId="0" borderId="185" xfId="27" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="187" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="188" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="27" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="35" fillId="0" borderId="5" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="35" fillId="0" borderId="190" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="35" fillId="0" borderId="67" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="35" fillId="0" borderId="180" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="149" xfId="27" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="35" fillId="0" borderId="192" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="35" fillId="0" borderId="193" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="27" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="35" fillId="0" borderId="5" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="35" fillId="0" borderId="190" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="27" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="35" fillId="0" borderId="3" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="35" fillId="0" borderId="68" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="64" xfId="27" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="35" fillId="0" borderId="64" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="35" fillId="0" borderId="65" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="221" fontId="35" fillId="0" borderId="139" xfId="27" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -14712,11 +14709,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="엑셀데이터"/>
@@ -14977,7 +14982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15009,9 +15014,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15043,6 +15049,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15218,7 +15225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15239,7 +15246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -15538,7 +15545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15748,7 +15755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16162,7 +16169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16800,7 +16807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17276,7 +17283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17590,7 +17597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17803,7 +17810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18201,7 +18208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -22066,7 +22073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -22272,7 +22279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22598,7 +22605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -22614,7 +22621,7 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="237" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -22829,7 +22836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -22848,7 +22855,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1">
@@ -22932,7 +22939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -23020,7 +23027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -23273,7 +23280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -23496,7 +23503,7 @@
     </row>
     <row r="28" spans="1:2" s="564" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="565" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B28" s="566" t="s">
         <v>1436</v>
@@ -23575,7 +23582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="52"/>
   </sheetPr>
@@ -23783,7 +23790,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="560" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="313" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -23799,7 +23806,7 @@
         <v>1569</v>
       </c>
       <c r="B3" s="566" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="564" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -23807,7 +23814,7 @@
         <v>1571</v>
       </c>
       <c r="B4" s="566" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="564" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -23815,7 +23822,7 @@
         <v>1573</v>
       </c>
       <c r="B5" s="566" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="564" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -23852,26 +23859,26 @@
     </row>
     <row r="10" spans="1:2" s="564" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="565" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B10" s="681" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="564" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="565" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B11" s="566" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="564" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="565" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B12" s="566" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="564" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -23887,21 +23894,21 @@
         <v>1583</v>
       </c>
       <c r="B14" s="566" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="564" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="565" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B15" s="681" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="564" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
       <c r="A17" s="560" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="313" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -23914,58 +23921,58 @@
     </row>
     <row r="19" spans="1:2" s="313" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A19" s="578" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B19" s="579" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="571" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B20" s="572" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="571" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B21" s="572" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="571" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B22" s="572" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="313" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="578" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B23" s="579" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="313" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="578" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B24" s="579" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="571" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B25" s="572" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -23973,7 +23980,7 @@
         <v>1333</v>
       </c>
       <c r="B26" s="572" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -23981,15 +23988,15 @@
         <v>1332</v>
       </c>
       <c r="B27" s="682" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="313" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="571" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B28" s="572" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
   </sheetData>
@@ -24001,7 +24008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -24234,7 +24241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -24403,7 +24410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -24808,7 +24815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -25155,7 +25162,7 @@
       </c>
       <c r="D3" s="546">
         <f ca="1">TODAY()</f>
-        <v>40924</v>
+        <v>44907</v>
       </c>
       <c r="E3" s="313"/>
     </row>
@@ -25166,7 +25173,7 @@
       </c>
       <c r="D4" s="547">
         <f ca="1">NOW()</f>
-        <v>40924.535992245372</v>
+        <v>44907.575457870371</v>
       </c>
       <c r="E4" s="313"/>
     </row>
@@ -25188,7 +25195,7 @@
       </c>
       <c r="D6" s="527">
         <f ca="1">YEAR(TODAY())</f>
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="E6" s="313"/>
     </row>
@@ -25199,7 +25206,7 @@
       </c>
       <c r="D7" s="527">
         <f ca="1">MONTH(TODAY())</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7" s="313"/>
     </row>
@@ -25210,7 +25217,7 @@
       </c>
       <c r="D8" s="527">
         <f ca="1">DAY(TODAY())</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="313"/>
     </row>
@@ -25726,7 +25733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I11:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25762,7 +25769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26879,7 +26886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -27677,7 +27684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -28465,7 +28472,7 @@
       </c>
       <c r="D43" s="428">
         <f ca="1">YEAR(TODAY())</f>
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="E43" s="434" t="s">
         <v>1268</v>
@@ -28800,7 +28807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H62"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -29921,7 +29928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -30619,7 +30626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -30641,13 +30648,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" customHeight="1">
-      <c r="A1" s="851" t="s">
+      <c r="A1" s="833" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="851"/>
-      <c r="C1" s="851"/>
-      <c r="D1" s="851"/>
-      <c r="E1" s="851"/>
+      <c r="B1" s="833"/>
+      <c r="C1" s="833"/>
+      <c r="D1" s="833"/>
+      <c r="E1" s="833"/>
       <c r="F1" s="46"/>
       <c r="G1" s="46"/>
       <c r="H1" s="46"/>
@@ -30667,10 +30674,10 @@
       <c r="A12" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="852" t="s">
+      <c r="B12" s="835" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="852"/>
+      <c r="C12" s="835"/>
       <c r="D12" s="44" t="s">
         <v>54</v>
       </c>
@@ -30694,10 +30701,10 @@
       <c r="A13" s="42">
         <v>1</v>
       </c>
-      <c r="B13" s="853" t="s">
+      <c r="B13" s="836" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="853"/>
+      <c r="C13" s="836"/>
       <c r="D13" s="41"/>
       <c r="E13" s="41" t="s">
         <v>47</v>
@@ -30718,10 +30725,10 @@
       <c r="A14" s="19">
         <v>2</v>
       </c>
-      <c r="B14" s="845" t="s">
+      <c r="B14" s="834" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="845"/>
+      <c r="C14" s="834"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
         <v>42</v>
@@ -30742,10 +30749,10 @@
       <c r="A15" s="19">
         <v>3</v>
       </c>
-      <c r="B15" s="845" t="s">
+      <c r="B15" s="834" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="845"/>
+      <c r="C15" s="834"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
         <v>42</v>
@@ -30766,10 +30773,10 @@
       <c r="A16" s="19">
         <v>4</v>
       </c>
-      <c r="B16" s="845" t="s">
+      <c r="B16" s="834" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="845"/>
+      <c r="C16" s="834"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
         <v>42</v>
@@ -30790,10 +30797,10 @@
       <c r="A17" s="19">
         <v>5</v>
       </c>
-      <c r="B17" s="845" t="s">
+      <c r="B17" s="834" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="845"/>
+      <c r="C17" s="834"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
         <v>42</v>
@@ -30814,8 +30821,8 @@
       <c r="A18" s="19">
         <v>6</v>
       </c>
-      <c r="B18" s="845"/>
-      <c r="C18" s="845"/>
+      <c r="B18" s="834"/>
+      <c r="C18" s="834"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -30830,8 +30837,8 @@
       <c r="A19" s="19">
         <v>7</v>
       </c>
-      <c r="B19" s="845"/>
-      <c r="C19" s="845"/>
+      <c r="B19" s="834"/>
+      <c r="C19" s="834"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -30846,8 +30853,8 @@
       <c r="A20" s="19">
         <v>8</v>
       </c>
-      <c r="B20" s="845"/>
-      <c r="C20" s="845"/>
+      <c r="B20" s="834"/>
+      <c r="C20" s="834"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -30862,8 +30869,8 @@
       <c r="A21" s="19">
         <v>9</v>
       </c>
-      <c r="B21" s="845"/>
-      <c r="C21" s="845"/>
+      <c r="B21" s="834"/>
+      <c r="C21" s="834"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -30878,8 +30885,8 @@
       <c r="A22" s="19">
         <v>10</v>
       </c>
-      <c r="B22" s="845"/>
-      <c r="C22" s="845"/>
+      <c r="B22" s="834"/>
+      <c r="C22" s="834"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -30894,8 +30901,8 @@
       <c r="A23" s="19">
         <v>11</v>
       </c>
-      <c r="B23" s="845"/>
-      <c r="C23" s="845"/>
+      <c r="B23" s="834"/>
+      <c r="C23" s="834"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -30910,8 +30917,8 @@
       <c r="A24" s="19">
         <v>12</v>
       </c>
-      <c r="B24" s="845"/>
-      <c r="C24" s="845"/>
+      <c r="B24" s="834"/>
+      <c r="C24" s="834"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -30926,8 +30933,8 @@
       <c r="A25" s="35">
         <v>13</v>
       </c>
-      <c r="B25" s="846"/>
-      <c r="C25" s="847"/>
+      <c r="B25" s="849"/>
+      <c r="C25" s="850"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -30939,13 +30946,13 @@
       <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" s="27" customFormat="1" ht="21" customHeight="1" thickTop="1">
-      <c r="A26" s="848" t="s">
+      <c r="A26" s="851" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="849"/>
-      <c r="C26" s="849"/>
-      <c r="D26" s="849"/>
-      <c r="E26" s="850"/>
+      <c r="B26" s="852"/>
+      <c r="C26" s="852"/>
+      <c r="D26" s="852"/>
+      <c r="E26" s="853"/>
       <c r="F26" s="30">
         <f>SUM(F13:F25)</f>
         <v>12</v>
@@ -30961,58 +30968,58 @@
       <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" s="27" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="833" t="s">
+      <c r="A27" s="837" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="836"/>
-      <c r="C27" s="837"/>
-      <c r="D27" s="837"/>
-      <c r="E27" s="837"/>
-      <c r="F27" s="837"/>
-      <c r="G27" s="837"/>
-      <c r="H27" s="837"/>
-      <c r="I27" s="838"/>
+      <c r="B27" s="840"/>
+      <c r="C27" s="841"/>
+      <c r="D27" s="841"/>
+      <c r="E27" s="841"/>
+      <c r="F27" s="841"/>
+      <c r="G27" s="841"/>
+      <c r="H27" s="841"/>
+      <c r="I27" s="842"/>
     </row>
     <row r="28" spans="1:9" s="27" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="834"/>
-      <c r="B28" s="839"/>
-      <c r="C28" s="840"/>
-      <c r="D28" s="840"/>
-      <c r="E28" s="840"/>
-      <c r="F28" s="840"/>
-      <c r="G28" s="840"/>
-      <c r="H28" s="840"/>
-      <c r="I28" s="841"/>
+      <c r="A28" s="838"/>
+      <c r="B28" s="843"/>
+      <c r="C28" s="844"/>
+      <c r="D28" s="844"/>
+      <c r="E28" s="844"/>
+      <c r="F28" s="844"/>
+      <c r="G28" s="844"/>
+      <c r="H28" s="844"/>
+      <c r="I28" s="845"/>
     </row>
     <row r="29" spans="1:9" s="27" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="834"/>
-      <c r="B29" s="839"/>
-      <c r="C29" s="840"/>
-      <c r="D29" s="840"/>
-      <c r="E29" s="840"/>
-      <c r="F29" s="840"/>
-      <c r="G29" s="840"/>
-      <c r="H29" s="840"/>
-      <c r="I29" s="841"/>
+      <c r="A29" s="838"/>
+      <c r="B29" s="843"/>
+      <c r="C29" s="844"/>
+      <c r="D29" s="844"/>
+      <c r="E29" s="844"/>
+      <c r="F29" s="844"/>
+      <c r="G29" s="844"/>
+      <c r="H29" s="844"/>
+      <c r="I29" s="845"/>
     </row>
     <row r="30" spans="1:9" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="835"/>
-      <c r="B30" s="842"/>
-      <c r="C30" s="843"/>
-      <c r="D30" s="843"/>
-      <c r="E30" s="843"/>
-      <c r="F30" s="843"/>
-      <c r="G30" s="843"/>
-      <c r="H30" s="843"/>
-      <c r="I30" s="844"/>
+      <c r="A30" s="839"/>
+      <c r="B30" s="846"/>
+      <c r="C30" s="847"/>
+      <c r="D30" s="847"/>
+      <c r="E30" s="847"/>
+      <c r="F30" s="847"/>
+      <c r="G30" s="847"/>
+      <c r="H30" s="847"/>
+      <c r="I30" s="848"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:I30"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
@@ -31021,11 +31028,11 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:I30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31035,7 +31042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -31161,7 +31168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31659,7 +31666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -31786,7 +31793,7 @@
     <row r="15" spans="2:14" ht="28.5" customHeight="1">
       <c r="B15" s="860">
         <f ca="1">TODAY()</f>
-        <v>40924</v>
+        <v>44907</v>
       </c>
       <c r="C15" s="860"/>
       <c r="D15" s="860"/>
@@ -31838,7 +31845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -31945,7 +31952,7 @@
     <row r="15" spans="2:14" ht="28.5" customHeight="1">
       <c r="B15" s="867">
         <f ca="1">TODAY()</f>
-        <v>40924</v>
+        <v>44907</v>
       </c>
       <c r="C15" s="867"/>
       <c r="D15" s="867"/>
@@ -31995,7 +32002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32353,11 +32360,11 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D29" sqref="B27:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32374,36 +32381,36 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1">
       <c r="A1" s="628" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B1" s="628" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="C1" s="628" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="D1" s="628" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="E1" s="628" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="F1" s="628" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="G1" s="628" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="H1" s="628" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" thickTop="1">
       <c r="A2" s="624" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B2" s="624" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C2" s="626">
         <v>6202031005733</v>
@@ -32426,13 +32433,13 @@
         <v>839</v>
       </c>
       <c r="B3" s="624" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C3" s="626">
         <v>5609032009775</v>
       </c>
       <c r="D3" s="625" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="E3" s="624" t="s">
         <v>840</v>
@@ -32449,7 +32456,7 @@
         <v>841</v>
       </c>
       <c r="B4" s="624" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C4" s="626">
         <v>7303251002605</v>
@@ -32472,13 +32479,13 @@
         <v>844</v>
       </c>
       <c r="B5" s="624" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="C5" s="626">
         <v>6207021003034</v>
       </c>
       <c r="D5" s="625" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="E5" s="624" t="s">
         <v>845</v>
@@ -32495,7 +32502,7 @@
         <v>846</v>
       </c>
       <c r="B6" s="624" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C6" s="626">
         <v>5902261005856</v>
@@ -32518,13 +32525,13 @@
         <v>849</v>
       </c>
       <c r="B7" s="624" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="C7" s="626">
         <v>6602082006000</v>
       </c>
       <c r="D7" s="625" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="E7" s="624" t="s">
         <v>845</v>
@@ -32541,13 +32548,13 @@
         <v>850</v>
       </c>
       <c r="B8" s="624" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C8" s="626">
         <v>6902091004056</v>
       </c>
       <c r="D8" s="625" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="E8" s="624" t="s">
         <v>851</v>
@@ -32564,13 +32571,13 @@
         <v>852</v>
       </c>
       <c r="B9" s="624" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C9" s="626">
         <v>5605311004812</v>
       </c>
       <c r="D9" s="625" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E9" s="624" t="s">
         <v>58</v>
@@ -32587,13 +32594,13 @@
         <v>853</v>
       </c>
       <c r="B10" s="624" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C10" s="626">
         <v>5604111002318</v>
       </c>
       <c r="D10" s="625" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="E10" s="624" t="s">
         <v>58</v>
@@ -32610,7 +32617,7 @@
         <v>854</v>
       </c>
       <c r="B11" s="624" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="C11" s="626">
         <v>6808062003951</v>
@@ -32633,13 +32640,13 @@
         <v>857</v>
       </c>
       <c r="B12" s="624" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C12" s="626">
         <v>5807152004349</v>
       </c>
       <c r="D12" s="625" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E12" s="624" t="s">
         <v>826</v>
@@ -32656,13 +32663,13 @@
         <v>859</v>
       </c>
       <c r="B13" s="624" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C13" s="626">
         <v>6810282004638</v>
       </c>
       <c r="D13" s="625" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="E13" s="624" t="s">
         <v>851</v>
@@ -32679,13 +32686,13 @@
         <v>860</v>
       </c>
       <c r="B14" s="624" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="C14" s="626">
         <v>6110151006025</v>
       </c>
       <c r="D14" s="625" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="E14" s="624" t="s">
         <v>58</v>
@@ -32702,7 +32709,7 @@
         <v>861</v>
       </c>
       <c r="B15" s="624" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="C15" s="626">
         <v>7403081006396</v>
@@ -32725,13 +32732,13 @@
         <v>862</v>
       </c>
       <c r="B16" s="624" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C16" s="626">
         <v>7207072008872</v>
       </c>
       <c r="D16" s="625" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E16" s="624" t="s">
         <v>851</v>
@@ -32748,13 +32755,13 @@
         <v>863</v>
       </c>
       <c r="B17" s="624" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C17" s="626">
         <v>6202232008900</v>
       </c>
       <c r="D17" s="625" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E17" s="624" t="s">
         <v>840</v>
@@ -32771,7 +32778,7 @@
         <v>864</v>
       </c>
       <c r="B18" s="624" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C18" s="626">
         <v>5401052007385</v>
@@ -32794,7 +32801,7 @@
         <v>866</v>
       </c>
       <c r="B19" s="624" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C19" s="626">
         <v>5407211006695</v>
@@ -32817,13 +32824,13 @@
         <v>868</v>
       </c>
       <c r="B20" s="624" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C20" s="626">
         <v>5405102005007</v>
       </c>
       <c r="D20" s="625" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E20" s="624" t="s">
         <v>826</v>
@@ -32840,13 +32847,13 @@
         <v>869</v>
       </c>
       <c r="B21" s="624" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C21" s="626">
         <v>7311282006358</v>
       </c>
       <c r="D21" s="625" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E21" s="624" t="s">
         <v>851</v>
@@ -32863,7 +32870,7 @@
         <v>870</v>
       </c>
       <c r="B22" s="624" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C22" s="626">
         <v>5607261008604</v>
@@ -32886,13 +32893,13 @@
         <v>872</v>
       </c>
       <c r="B23" s="624" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C23" s="626">
         <v>6408161007304</v>
       </c>
       <c r="D23" s="625" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="E23" s="624" t="s">
         <v>840</v>
@@ -32909,7 +32916,7 @@
         <v>873</v>
       </c>
       <c r="B24" s="624" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C24" s="626">
         <v>5902112002611</v>
@@ -32932,7 +32939,7 @@
         <v>875</v>
       </c>
       <c r="B25" s="624" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C25" s="626">
         <v>6201112005622</v>
@@ -32955,13 +32962,13 @@
         <v>877</v>
       </c>
       <c r="B26" s="624" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C26" s="626">
         <v>6409041003139</v>
       </c>
       <c r="D26" s="625" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E26" s="624" t="s">
         <v>845</v>
@@ -32978,15 +32985,9 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="624"/>
-      <c r="B28" s="627" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C28" s="627" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D28" s="627" t="s">
-        <v>1607</v>
-      </c>
+      <c r="B28" s="627"/>
+      <c r="C28" s="627"/>
+      <c r="D28" s="627"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="624"/>
@@ -33088,7 +33089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33999,7 +34000,7 @@
       <c r="Q32" s="428"/>
     </row>
   </sheetData>
-  <dataConsolidate leftLabels="1" topLabels="1"/>
+  <dataConsolidate topLabels="1"/>
   <mergeCells count="4">
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="M7:O7"/>
@@ -34014,7 +34015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -35215,7 +35216,7 @@
       <c r="K28" s="428"/>
     </row>
   </sheetData>
-  <dataConsolidate leftLabels="1" topLabels="1"/>
+  <dataConsolidate topLabels="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B10:E10"/>
@@ -35230,7 +35231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36496,7 +36497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -36997,7 +36998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37153,7 +37154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38237,7 +38238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38826,29 +38827,29 @@
   <sheetData>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="695" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B2" s="696">
         <v>1000</v>
       </c>
       <c r="D2" s="461" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="E2" s="697"/>
       <c r="G2" s="695" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="H2" s="696">
         <v>3300</v>
       </c>
       <c r="I2" s="695" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="J2" s="695">
         <v>10</v>
       </c>
       <c r="K2" s="695" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="L2" s="698">
         <f>H2*J2</f>
@@ -38857,7 +38858,7 @@
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A3" s="695" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B3" s="699">
         <v>5</v>
@@ -38869,7 +38870,7 @@
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="695" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B4" s="698">
         <f>B2*B3</f>
@@ -38880,7 +38881,7 @@
       </c>
       <c r="E4" s="466"/>
       <c r="G4" s="461" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="H4" s="461">
         <v>14</v>
@@ -38924,19 +38925,19 @@
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="G8" s="695" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="H8" s="695">
         <v>1</v>
       </c>
       <c r="I8" s="695" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="J8" s="695">
         <v>45</v>
       </c>
       <c r="K8" s="695" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="L8" s="695">
         <f>H8*J8</f>
@@ -38945,17 +38946,17 @@
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A10" s="695" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B10" s="696">
         <v>2700</v>
       </c>
       <c r="D10" s="461" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="E10" s="697"/>
       <c r="G10" s="461" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="H10" s="461">
         <v>5</v>
@@ -38975,7 +38976,7 @@
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A11" s="695" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B11" s="699">
         <v>3</v>
@@ -38993,7 +38994,7 @@
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="695" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B12" s="698">
         <f>B10*B11</f>
@@ -39033,7 +39034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39623,7 +39624,7 @@
     <row r="1" spans="1:7" ht="10.5" customHeight="1"/>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="695" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B2" s="702">
         <v>15000000</v>
@@ -39636,7 +39637,7 @@
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="695" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B3" s="703">
         <v>9.5000000000000001E-2</v>
@@ -39649,7 +39650,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="695" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B4" s="704">
         <v>36</v>
@@ -39800,7 +39801,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="709" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B17" s="460"/>
       <c r="C17" s="460"/>
@@ -39811,7 +39812,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="695" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B18" s="702">
         <v>21130000</v>
@@ -39823,7 +39824,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="695" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B19" s="702">
         <v>24670000</v>
@@ -39835,7 +39836,7 @@
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="695" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B20" s="710">
         <v>7.4999999999999997E-2</v>
@@ -39848,7 +39849,7 @@
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="695" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B21" s="704">
         <v>2</v>
@@ -40016,7 +40017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40083,7 +40084,7 @@
       </c>
       <c r="F4" s="885">
         <f ca="1">TODAY()</f>
-        <v>40924</v>
+        <v>44907</v>
       </c>
       <c r="G4" s="886"/>
     </row>
@@ -40632,7 +40633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41221,7 +41222,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="22.5" customHeight="1">
       <c r="B2" s="784" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C2" s="784"/>
       <c r="D2" s="784"/>
@@ -41234,34 +41235,34 @@
     </row>
     <row r="4" spans="2:11" ht="20.25" customHeight="1" thickBot="1">
       <c r="B4" s="561" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C4" s="561" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D4" s="561" t="s">
         <v>1679</v>
       </c>
-      <c r="C4" s="561" t="s">
+      <c r="E4" s="561" t="s">
         <v>1680</v>
       </c>
-      <c r="D4" s="561" t="s">
+      <c r="F4" s="561" t="s">
         <v>1681</v>
       </c>
-      <c r="E4" s="561" t="s">
+      <c r="G4" s="561" t="s">
         <v>1682</v>
       </c>
-      <c r="F4" s="561" t="s">
+      <c r="H4" s="561" t="s">
         <v>1683</v>
       </c>
-      <c r="G4" s="561" t="s">
+      <c r="I4" s="561" t="s">
         <v>1684</v>
       </c>
-      <c r="H4" s="561" t="s">
+      <c r="J4" s="640" t="s">
         <v>1685</v>
       </c>
-      <c r="I4" s="561" t="s">
+      <c r="K4" s="640" t="s">
         <v>1686</v>
-      </c>
-      <c r="J4" s="640" t="s">
-        <v>1687</v>
-      </c>
-      <c r="K4" s="640" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="20.25" customHeight="1" thickTop="1">
@@ -41426,34 +41427,34 @@
     </row>
     <row r="11" spans="2:11" s="313" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B11" s="561" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C11" s="561" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D11" s="561" t="s">
         <v>1689</v>
       </c>
-      <c r="C11" s="561" t="s">
+      <c r="E11" s="561" t="s">
         <v>1690</v>
       </c>
-      <c r="D11" s="561" t="s">
+      <c r="F11" s="561" t="s">
         <v>1691</v>
       </c>
-      <c r="E11" s="561" t="s">
+      <c r="G11" s="561" t="s">
         <v>1692</v>
       </c>
-      <c r="F11" s="561" t="s">
+      <c r="H11" s="561" t="s">
         <v>1693</v>
       </c>
-      <c r="G11" s="561" t="s">
+      <c r="I11" s="561" t="s">
         <v>1694</v>
       </c>
-      <c r="H11" s="561" t="s">
+      <c r="J11" s="561" t="s">
         <v>1695</v>
       </c>
-      <c r="I11" s="561" t="s">
+      <c r="K11" s="640" t="s">
         <v>1696</v>
-      </c>
-      <c r="J11" s="561" t="s">
-        <v>1697</v>
-      </c>
-      <c r="K11" s="640" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="313" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1">
@@ -41619,16 +41620,16 @@
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1"/>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B19" s="664" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C19" s="665" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D19" s="665" t="s">
         <v>1699</v>
       </c>
-      <c r="C19" s="665" t="s">
+      <c r="E19" s="665" t="s">
         <v>1700</v>
-      </c>
-      <c r="D19" s="665" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E19" s="665" t="s">
-        <v>1702</v>
       </c>
       <c r="F19" s="666">
         <v>0</v>
@@ -41724,7 +41725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41749,7 +41750,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="880" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B1" s="880"/>
       <c r="C1" s="880"/>
@@ -41761,39 +41762,39 @@
     <row r="2" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="3" spans="1:8" s="460" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
       <c r="A3" s="461" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="B3" s="461" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="C3" s="461" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="D3" s="461" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="E3" s="461" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="F3" s="462" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="G3" s="462" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A4" s="463" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B4" s="463" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C4" s="463" t="s">
         <v>1820</v>
       </c>
-      <c r="B4" s="463" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C4" s="463" t="s">
-        <v>1822</v>
-      </c>
       <c r="D4" s="463" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E4" s="464">
         <v>768790</v>
@@ -41808,16 +41809,16 @@
     </row>
     <row r="5" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="466" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B5" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="C5" s="466" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D5" s="466" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="E5" s="467">
         <v>891400</v>
@@ -41832,16 +41833,16 @@
     </row>
     <row r="6" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="466" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B6" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C6" s="466" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="D6" s="466" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="E6" s="467">
         <v>891400</v>
@@ -41856,16 +41857,16 @@
     </row>
     <row r="7" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="466" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B7" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="C7" s="466" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="D7" s="466" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="E7" s="467">
         <v>953400</v>
@@ -41880,16 +41881,16 @@
     </row>
     <row r="8" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="466" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B8" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="C8" s="466" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="D8" s="466" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="E8" s="467">
         <v>953400</v>
@@ -41904,16 +41905,16 @@
     </row>
     <row r="9" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="466" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B9" s="466" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="C9" s="466" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="D9" s="466" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="E9" s="467">
         <v>1023900</v>
@@ -41928,16 +41929,16 @@
     </row>
     <row r="10" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="466" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B10" s="466" t="s">
         <v>1805</v>
       </c>
-      <c r="B10" s="466" t="s">
+      <c r="C10" s="466" t="s">
         <v>1807</v>
       </c>
-      <c r="C10" s="466" t="s">
-        <v>1809</v>
-      </c>
       <c r="D10" s="466" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="E10" s="467">
         <v>1023900</v>
@@ -41952,16 +41953,16 @@
     </row>
     <row r="11" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="466" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B11" s="466" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="C11" s="466" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="D11" s="466" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="E11" s="467">
         <v>1267500</v>
@@ -41976,16 +41977,16 @@
     </row>
     <row r="12" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="466" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B12" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="C12" s="466" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="D12" s="466" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="E12" s="467">
         <v>1276700</v>
@@ -42000,16 +42001,16 @@
     </row>
     <row r="13" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="466" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B13" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="C13" s="466" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="D13" s="466" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="E13" s="467">
         <v>1276700</v>
@@ -42024,16 +42025,16 @@
     </row>
     <row r="14" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="466" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B14" s="466" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C14" s="466" t="s">
         <v>1795</v>
       </c>
-      <c r="B14" s="466" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C14" s="466" t="s">
-        <v>1797</v>
-      </c>
       <c r="D14" s="466" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="E14" s="467">
         <v>1343500</v>
@@ -42048,10 +42049,10 @@
     </row>
     <row r="15" spans="1:8" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="466" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B15" s="466" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="C15" s="466" t="s">
         <v>1019</v>
@@ -42081,7 +42082,7 @@
         <v>1020</v>
       </c>
       <c r="D16" s="466" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="E16" s="467">
         <v>1453200</v>
@@ -42096,16 +42097,16 @@
     </row>
     <row r="17" spans="1:7" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="466" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B17" s="466" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C17" s="466" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="D17" s="466" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="E17" s="467">
         <v>1487500</v>
@@ -42120,16 +42121,16 @@
     </row>
     <row r="18" spans="1:7" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="466" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B18" s="466" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="C18" s="466" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="D18" s="466" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="E18" s="467">
         <v>1523400</v>
@@ -42144,16 +42145,16 @@
     </row>
     <row r="19" spans="1:7" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="466" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B19" s="466" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C19" s="466" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="D19" s="466" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="E19" s="467">
         <v>1523400</v>
@@ -42168,7 +42169,7 @@
     </row>
     <row r="20" spans="1:7" s="460" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="887" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B20" s="887"/>
       <c r="C20" s="887"/>
@@ -42201,7 +42202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42218,7 +42219,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="26.25">
       <c r="B2" s="888" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C2" s="888"/>
       <c r="D2" s="888"/>
@@ -42238,36 +42239,36 @@
     </row>
     <row r="4" spans="2:8" ht="16.5">
       <c r="B4" s="718" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C4" s="889" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="D4" s="889"/>
       <c r="E4" s="889"/>
       <c r="F4" s="718" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="G4" s="890" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="H4" s="891"/>
     </row>
     <row r="5" spans="2:8" ht="16.5">
       <c r="B5" s="718" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C5" s="889" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D5" s="889"/>
       <c r="E5" s="889"/>
       <c r="F5" s="718" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="G5" s="892">
         <f ca="1">TODAY()</f>
-        <v>40924</v>
+        <v>44907</v>
       </c>
       <c r="H5" s="893"/>
     </row>
@@ -42282,39 +42283,39 @@
     </row>
     <row r="7" spans="2:8" ht="16.5">
       <c r="B7" s="716" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C7" s="716" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D7" s="716" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="E7" s="716" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="F7" s="716" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="G7" s="716" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="H7" s="716" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="16.5">
       <c r="B8" s="714" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C8" s="714" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="D8" s="714" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="E8" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F8" s="714">
         <v>100</v>
@@ -42329,16 +42330,16 @@
     </row>
     <row r="9" spans="2:8" ht="16.5">
       <c r="B9" s="714" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C9" s="714" t="s">
         <v>1042</v>
       </c>
       <c r="D9" s="714" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="E9" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F9" s="714">
         <v>50</v>
@@ -42353,16 +42354,16 @@
     </row>
     <row r="10" spans="2:8" ht="16.5">
       <c r="B10" s="714" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C10" s="714" t="s">
         <v>1044</v>
       </c>
       <c r="D10" s="714" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="E10" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F10" s="714">
         <v>45</v>
@@ -42377,16 +42378,16 @@
     </row>
     <row r="11" spans="2:8" ht="16.5">
       <c r="B11" s="714" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C11" s="714" t="s">
         <v>1046</v>
       </c>
       <c r="D11" s="714" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="E11" s="715" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F11" s="714">
         <v>50</v>
@@ -42401,16 +42402,16 @@
     </row>
     <row r="12" spans="2:8" ht="16.5">
       <c r="B12" s="714" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C12" s="714" t="s">
         <v>1049</v>
       </c>
       <c r="D12" s="714" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="E12" s="715" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F12" s="714">
         <v>80</v>
@@ -42425,16 +42426,16 @@
     </row>
     <row r="13" spans="2:8" ht="16.5">
       <c r="B13" s="714" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C13" s="714" t="s">
         <v>1051</v>
       </c>
       <c r="D13" s="714" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="E13" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F13" s="714">
         <v>45</v>
@@ -42449,16 +42450,16 @@
     </row>
     <row r="14" spans="2:8" ht="16.5">
       <c r="B14" s="714" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C14" s="714" t="s">
         <v>1053</v>
       </c>
       <c r="D14" s="714" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E14" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F14" s="714">
         <v>70</v>
@@ -42473,16 +42474,16 @@
     </row>
     <row r="15" spans="2:8" ht="16.5">
       <c r="B15" s="714" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C15" s="714" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D15" s="714" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="E15" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F15" s="714">
         <v>45</v>
@@ -42497,16 +42498,16 @@
     </row>
     <row r="16" spans="2:8" ht="16.5">
       <c r="B16" s="714" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C16" s="714" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="D16" s="714" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="E16" s="715" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F16" s="714">
         <v>45</v>
@@ -42521,16 +42522,16 @@
     </row>
     <row r="17" spans="2:8" ht="16.5">
       <c r="B17" s="714" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C17" s="714" t="s">
         <v>1042</v>
       </c>
       <c r="D17" s="714" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="E17" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F17" s="714">
         <v>50</v>
@@ -42545,16 +42546,16 @@
     </row>
     <row r="18" spans="2:8" ht="16.5">
       <c r="B18" s="714" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C18" s="714" t="s">
         <v>1044</v>
       </c>
       <c r="D18" s="714" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="E18" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F18" s="714">
         <v>80</v>
@@ -42569,16 +42570,16 @@
     </row>
     <row r="19" spans="2:8" ht="16.5">
       <c r="B19" s="714" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C19" s="714" t="s">
         <v>1046</v>
       </c>
       <c r="D19" s="714" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="E19" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F19" s="714">
         <v>95</v>
@@ -42593,16 +42594,16 @@
     </row>
     <row r="20" spans="2:8" ht="16.5">
       <c r="B20" s="714" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C20" s="714" t="s">
         <v>1049</v>
       </c>
       <c r="D20" s="714" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E20" s="715" t="s">
         <v>1837</v>
-      </c>
-      <c r="E20" s="715" t="s">
-        <v>1839</v>
       </c>
       <c r="F20" s="714">
         <v>100</v>
@@ -42617,16 +42618,16 @@
     </row>
     <row r="21" spans="2:8" ht="16.5">
       <c r="B21" s="714" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C21" s="714" t="s">
         <v>1051</v>
       </c>
       <c r="D21" s="714" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="E21" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F21" s="714">
         <v>60</v>
@@ -42641,16 +42642,16 @@
     </row>
     <row r="22" spans="2:8" ht="16.5">
       <c r="B22" s="714" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C22" s="714" t="s">
         <v>1053</v>
       </c>
       <c r="D22" s="714" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E22" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F22" s="714">
         <v>100</v>
@@ -42665,16 +42666,16 @@
     </row>
     <row r="23" spans="2:8" ht="16.5">
       <c r="B23" s="714" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C23" s="714" t="s">
         <v>1058</v>
       </c>
       <c r="D23" s="714" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="E23" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F23" s="714">
         <v>70</v>
@@ -42689,16 +42690,16 @@
     </row>
     <row r="24" spans="2:8" ht="16.5">
       <c r="B24" s="714" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C24" s="714" t="s">
         <v>1042</v>
       </c>
       <c r="D24" s="714" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="E24" s="715" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F24" s="714">
         <v>10</v>
@@ -42713,16 +42714,16 @@
     </row>
     <row r="25" spans="2:8" ht="16.5">
       <c r="B25" s="714" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C25" s="714" t="s">
         <v>1044</v>
       </c>
       <c r="D25" s="714" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="E25" s="715" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F25" s="714">
         <v>50</v>
@@ -42737,16 +42738,16 @@
     </row>
     <row r="26" spans="2:8" ht="16.5">
       <c r="B26" s="714" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C26" s="714" t="s">
         <v>1046</v>
       </c>
       <c r="D26" s="714" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="E26" s="715" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F26" s="714">
         <v>20</v>
@@ -42761,16 +42762,16 @@
     </row>
     <row r="27" spans="2:8" ht="16.5">
       <c r="B27" s="714" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C27" s="714" t="s">
         <v>1049</v>
       </c>
       <c r="D27" s="714" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="E27" s="715" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F27" s="714">
         <v>10</v>
@@ -42785,16 +42786,16 @@
     </row>
     <row r="28" spans="2:8" ht="16.5">
       <c r="B28" s="714" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C28" s="714" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D28" s="714" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="E28" s="715" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="F28" s="714">
         <v>40</v>
@@ -42839,7 +42840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42860,7 +42861,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="16.5">
       <c r="B2" s="894" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="C2" s="894"/>
       <c r="D2" s="894"/>
@@ -42882,36 +42883,36 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="736" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C4" s="735" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="D4" s="735" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="E4" s="736" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="F4" s="736" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="G4" s="736" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="H4" s="735" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="I4" s="735" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="722" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="C5" s="734" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D5" s="733">
         <v>25000</v>
@@ -42937,10 +42938,10 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="722" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="C6" s="734" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D6" s="733">
         <v>25000</v>
@@ -42966,10 +42967,10 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="722" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C7" s="734" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D7" s="733">
         <v>32000</v>
@@ -42995,10 +42996,10 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="722" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="C8" s="734" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D8" s="733">
         <v>25000</v>
@@ -43024,10 +43025,10 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="722" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="C9" s="734" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D9" s="733">
         <v>45000</v>
@@ -43053,10 +43054,10 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="722" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="C10" s="734" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D10" s="733">
         <v>32000</v>
@@ -43082,10 +43083,10 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="722" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="C11" s="734" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D11" s="733">
         <v>32000</v>
@@ -43111,10 +43112,10 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="722" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="C12" s="734" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D12" s="733">
         <v>45000</v>
@@ -43140,10 +43141,10 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="722" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C13" s="734" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D13" s="733">
         <v>25000</v>
@@ -43175,7 +43176,7 @@
       <c r="F14" s="727"/>
       <c r="G14" s="727"/>
       <c r="H14" s="726" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="I14" s="725">
         <f>SUM(I5:I13)</f>
@@ -43188,13 +43189,13 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="895" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="C16" s="896"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="722" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C17" s="721">
         <v>0.15</v>
@@ -43202,7 +43203,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="722" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C18" s="721">
         <v>0.12</v>
@@ -43210,7 +43211,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="722" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C19" s="721">
         <v>0.1</v>
@@ -43218,13 +43219,13 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="895" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="C21" s="896"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="722" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C22" s="721">
         <v>0.18</v>
@@ -43232,7 +43233,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="722" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C23" s="721">
         <v>0.15</v>
@@ -43241,7 +43242,7 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="722" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C24" s="721">
         <v>0.12</v>
@@ -43249,13 +43250,13 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="895" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="C26" s="896"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="722" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C27" s="721">
         <v>0.12</v>
@@ -43263,7 +43264,7 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="722" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C28" s="721">
         <v>0.1</v>
@@ -43271,7 +43272,7 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="722" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C29" s="721">
         <v>0.08</v>
@@ -43296,7 +43297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43757,7 +43758,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="39" customHeight="1">
       <c r="B1" s="897" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C1" s="897"/>
       <c r="D1" s="897"/>
@@ -43770,46 +43771,46 @@
     </row>
     <row r="3" spans="2:10" ht="25.5" customHeight="1" thickBot="1">
       <c r="B3" s="739" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C3" s="739" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D3" s="739" t="s">
         <v>1891</v>
       </c>
-      <c r="C3" s="739" t="s">
+      <c r="E3" s="739" t="s">
         <v>1892</v>
       </c>
-      <c r="D3" s="739" t="s">
+      <c r="F3" s="739" t="s">
         <v>1893</v>
       </c>
-      <c r="E3" s="739" t="s">
+      <c r="G3" s="739" t="s">
         <v>1894</v>
       </c>
-      <c r="F3" s="739" t="s">
+      <c r="H3" s="739" t="s">
         <v>1895</v>
       </c>
-      <c r="G3" s="739" t="s">
+      <c r="I3" s="739" t="s">
         <v>1896</v>
       </c>
-      <c r="H3" s="739" t="s">
+      <c r="J3" s="739" t="s">
         <v>1897</v>
-      </c>
-      <c r="I3" s="739" t="s">
-        <v>1898</v>
-      </c>
-      <c r="J3" s="739" t="s">
-        <v>1899</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="17.100000000000001" customHeight="1" thickTop="1">
       <c r="B4" s="463" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="C4" s="463" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="D4" s="463" t="str">
         <f t="shared" ref="D4:D67" si="0">IF(LEFT(B4,1)="A","연구부",IF(LEFT(B4,1)="B","관리부","경리부"))</f>
         <v>연구부</v>
       </c>
       <c r="E4" s="463" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="F4" s="464">
         <v>1500000</v>
@@ -43832,17 +43833,17 @@
     </row>
     <row r="5" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B5" s="466" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="C5" s="466" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="D5" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E5" s="466" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="F5" s="467">
         <v>1400000</v>
@@ -43865,17 +43866,17 @@
     </row>
     <row r="6" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B6" s="466" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="C6" s="466" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="D6" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E6" s="466" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="F6" s="467">
         <v>1400000</v>
@@ -43898,17 +43899,17 @@
     </row>
     <row r="7" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B7" s="463" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="C7" s="466" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D7" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E7" s="466" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F7" s="467">
         <v>1300000</v>
@@ -43931,17 +43932,17 @@
     </row>
     <row r="8" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B8" s="466" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="C8" s="466" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="D8" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E8" s="466" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F8" s="467">
         <v>1300000</v>
@@ -43964,17 +43965,17 @@
     </row>
     <row r="9" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B9" s="466" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="C9" s="466" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="D9" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E9" s="466" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F9" s="467">
         <v>1200000</v>
@@ -43997,17 +43998,17 @@
     </row>
     <row r="10" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B10" s="463" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="C10" s="466" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="D10" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E10" s="466" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F10" s="467">
         <v>1200000</v>
@@ -44030,17 +44031,17 @@
     </row>
     <row r="11" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B11" s="466" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="C11" s="466" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D11" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E11" s="466" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F11" s="467">
         <v>1200000</v>
@@ -44063,17 +44064,17 @@
     </row>
     <row r="12" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B12" s="466" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="C12" s="466" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="D12" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E12" s="466" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F12" s="467">
         <v>1200000</v>
@@ -44096,17 +44097,17 @@
     </row>
     <row r="13" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B13" s="463" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="C13" s="466" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="D13" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E13" s="466" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="F13" s="467">
         <v>1500000</v>
@@ -44129,17 +44130,17 @@
     </row>
     <row r="14" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B14" s="466" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="C14" s="466" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="D14" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E14" s="466" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="F14" s="467">
         <v>1400000</v>
@@ -44162,17 +44163,17 @@
     </row>
     <row r="15" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B15" s="466" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="C15" s="466" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="D15" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E15" s="466" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="F15" s="467">
         <v>1400000</v>
@@ -44195,17 +44196,17 @@
     </row>
     <row r="16" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B16" s="463" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="C16" s="466" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D16" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E16" s="466" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F16" s="467">
         <v>1300000</v>
@@ -44228,17 +44229,17 @@
     </row>
     <row r="17" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B17" s="466" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="C17" s="466" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="D17" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E17" s="466" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F17" s="467">
         <v>1300000</v>
@@ -44261,17 +44262,17 @@
     </row>
     <row r="18" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B18" s="466" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="C18" s="466" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="D18" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E18" s="466" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F18" s="467">
         <v>1200000</v>
@@ -44294,17 +44295,17 @@
     </row>
     <row r="19" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B19" s="463" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C19" s="466" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="D19" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E19" s="466" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F19" s="467">
         <v>1200000</v>
@@ -44327,17 +44328,17 @@
     </row>
     <row r="20" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B20" s="466" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="C20" s="466" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D20" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E20" s="466" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F20" s="467">
         <v>1200000</v>
@@ -44360,17 +44361,17 @@
     </row>
     <row r="21" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B21" s="466" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="C21" s="466" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="D21" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E21" s="466" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F21" s="467">
         <v>1200000</v>
@@ -44393,17 +44394,17 @@
     </row>
     <row r="22" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B22" s="463" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="C22" s="466" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D22" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E22" s="466" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F22" s="467">
         <v>1500000</v>
@@ -44426,17 +44427,17 @@
     </row>
     <row r="23" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B23" s="466" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="C23" s="466" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D23" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E23" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F23" s="467">
         <v>1400000</v>
@@ -44459,17 +44460,17 @@
     </row>
     <row r="24" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B24" s="466" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="C24" s="466" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D24" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E24" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F24" s="467">
         <v>1400000</v>
@@ -44492,17 +44493,17 @@
     </row>
     <row r="25" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B25" s="463" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="C25" s="466" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D25" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E25" s="466" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F25" s="467">
         <v>1300000</v>
@@ -44525,17 +44526,17 @@
     </row>
     <row r="26" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B26" s="466" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="C26" s="466" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D26" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E26" s="466" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F26" s="467">
         <v>1300000</v>
@@ -44558,17 +44559,17 @@
     </row>
     <row r="27" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B27" s="466" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="C27" s="466" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="D27" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E27" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F27" s="467">
         <v>1200000</v>
@@ -44591,17 +44592,17 @@
     </row>
     <row r="28" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B28" s="463" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="C28" s="466" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="D28" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E28" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F28" s="467">
         <v>1200000</v>
@@ -44624,17 +44625,17 @@
     </row>
     <row r="29" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B29" s="466" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="C29" s="466" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="D29" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E29" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F29" s="467">
         <v>1200000</v>
@@ -44657,17 +44658,17 @@
     </row>
     <row r="30" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B30" s="466" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="C30" s="466" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D30" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E30" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F30" s="467">
         <v>1200000</v>
@@ -44690,17 +44691,17 @@
     </row>
     <row r="31" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B31" s="463" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="C31" s="466" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D31" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E31" s="466" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F31" s="467">
         <v>1500000</v>
@@ -44723,17 +44724,17 @@
     </row>
     <row r="32" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B32" s="466" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="C32" s="466" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D32" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E32" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F32" s="467">
         <v>1400000</v>
@@ -44756,17 +44757,17 @@
     </row>
     <row r="33" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B33" s="466" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="C33" s="466" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D33" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E33" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F33" s="467">
         <v>1400000</v>
@@ -44789,17 +44790,17 @@
     </row>
     <row r="34" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B34" s="463" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C34" s="466" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D34" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E34" s="466" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F34" s="467">
         <v>1300000</v>
@@ -44822,17 +44823,17 @@
     </row>
     <row r="35" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B35" s="466" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="C35" s="466" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D35" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E35" s="466" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F35" s="467">
         <v>1500000</v>
@@ -44855,17 +44856,17 @@
     </row>
     <row r="36" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B36" s="466" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C36" s="466" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D36" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E36" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F36" s="467">
         <v>1400000</v>
@@ -44888,17 +44889,17 @@
     </row>
     <row r="37" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B37" s="463" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="C37" s="466" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D37" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E37" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F37" s="467">
         <v>1400000</v>
@@ -44921,17 +44922,17 @@
     </row>
     <row r="38" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B38" s="466" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="C38" s="466" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D38" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E38" s="466" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F38" s="467">
         <v>1300000</v>
@@ -44954,17 +44955,17 @@
     </row>
     <row r="39" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B39" s="466" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="C39" s="466" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D39" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E39" s="466" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F39" s="467">
         <v>1300000</v>
@@ -44987,17 +44988,17 @@
     </row>
     <row r="40" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B40" s="463" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="C40" s="466" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="D40" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E40" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F40" s="467">
         <v>1200000</v>
@@ -45020,17 +45021,17 @@
     </row>
     <row r="41" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B41" s="466" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="C41" s="466" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="D41" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E41" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F41" s="467">
         <v>1200000</v>
@@ -45053,17 +45054,17 @@
     </row>
     <row r="42" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B42" s="466" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="C42" s="466" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="D42" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E42" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F42" s="467">
         <v>1200000</v>
@@ -45086,17 +45087,17 @@
     </row>
     <row r="43" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B43" s="463" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="C43" s="466" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D43" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E43" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F43" s="467">
         <v>1200000</v>
@@ -45119,17 +45120,17 @@
     </row>
     <row r="44" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B44" s="466" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="C44" s="466" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D44" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E44" s="466" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F44" s="467">
         <v>1500000</v>
@@ -45152,17 +45153,17 @@
     </row>
     <row r="45" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B45" s="466" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="C45" s="466" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D45" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E45" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F45" s="467">
         <v>1400000</v>
@@ -45185,17 +45186,17 @@
     </row>
     <row r="46" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B46" s="463" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="C46" s="466" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D46" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E46" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F46" s="467">
         <v>1400000</v>
@@ -45218,17 +45219,17 @@
     </row>
     <row r="47" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B47" s="466" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="C47" s="466" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D47" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E47" s="466" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F47" s="467">
         <v>1300000</v>
@@ -45251,17 +45252,17 @@
     </row>
     <row r="48" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B48" s="466" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="C48" s="466" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D48" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E48" s="466" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F48" s="467">
         <v>1300000</v>
@@ -45284,17 +45285,17 @@
     </row>
     <row r="49" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B49" s="463" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="C49" s="466" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="D49" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E49" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F49" s="467">
         <v>1200000</v>
@@ -45317,17 +45318,17 @@
     </row>
     <row r="50" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B50" s="466" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="C50" s="466" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="D50" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E50" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F50" s="467">
         <v>1200000</v>
@@ -45350,17 +45351,17 @@
     </row>
     <row r="51" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B51" s="466" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="C51" s="466" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="D51" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E51" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F51" s="467">
         <v>1200000</v>
@@ -45383,17 +45384,17 @@
     </row>
     <row r="52" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B52" s="463" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="C52" s="466" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D52" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E52" s="466" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F52" s="467">
         <v>1200000</v>
@@ -45416,17 +45417,17 @@
     </row>
     <row r="53" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B53" s="466" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="C53" s="466" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D53" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E53" s="466" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F53" s="467">
         <v>1500000</v>
@@ -45449,17 +45450,17 @@
     </row>
     <row r="54" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B54" s="466" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="C54" s="466" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D54" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E54" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F54" s="467">
         <v>1400000</v>
@@ -45482,17 +45483,17 @@
     </row>
     <row r="55" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B55" s="463" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="C55" s="466" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D55" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E55" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F55" s="467">
         <v>1400000</v>
@@ -45515,17 +45516,17 @@
     </row>
     <row r="56" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B56" s="466" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="C56" s="466" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D56" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E56" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F56" s="467">
         <v>1300000</v>
@@ -45548,17 +45549,17 @@
     </row>
     <row r="57" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B57" s="466" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="C57" s="466" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D57" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E57" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F57" s="467">
         <v>1300000</v>
@@ -45581,17 +45582,17 @@
     </row>
     <row r="58" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B58" s="463" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="C58" s="466" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="D58" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E58" s="466" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F58" s="467">
         <v>1200000</v>
@@ -45614,17 +45615,17 @@
     </row>
     <row r="59" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B59" s="466" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="C59" s="466" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D59" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E59" s="466" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F59" s="467">
         <v>1200000</v>
@@ -45647,17 +45648,17 @@
     </row>
     <row r="60" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B60" s="466" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C60" s="466" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D60" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E60" s="466" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F60" s="467">
         <v>1200000</v>
@@ -45680,17 +45681,17 @@
     </row>
     <row r="61" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B61" s="463" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C61" s="466" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="D61" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E61" s="466" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F61" s="467">
         <v>1200000</v>
@@ -45713,17 +45714,17 @@
     </row>
     <row r="62" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B62" s="466" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C62" s="466" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D62" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E62" s="466" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F62" s="467">
         <v>1500000</v>
@@ -45746,17 +45747,17 @@
     </row>
     <row r="63" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B63" s="466" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="C63" s="466" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D63" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E63" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F63" s="467">
         <v>1400000</v>
@@ -45779,17 +45780,17 @@
     </row>
     <row r="64" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B64" s="463" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="C64" s="466" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D64" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E64" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F64" s="467">
         <v>1400000</v>
@@ -45812,17 +45813,17 @@
     </row>
     <row r="65" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B65" s="466" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="C65" s="466" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D65" s="466" t="str">
         <f t="shared" si="0"/>
         <v>관리부</v>
       </c>
       <c r="E65" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F65" s="467">
         <v>1300000</v>
@@ -45845,17 +45846,17 @@
     </row>
     <row r="66" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B66" s="466" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="C66" s="466" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D66" s="466" t="str">
         <f t="shared" si="0"/>
         <v>경리부</v>
       </c>
       <c r="E66" s="466" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F66" s="467">
         <v>1500000</v>
@@ -45878,17 +45879,17 @@
     </row>
     <row r="67" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B67" s="463" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="C67" s="466" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D67" s="466" t="str">
         <f t="shared" si="0"/>
         <v>연구부</v>
       </c>
       <c r="E67" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F67" s="467">
         <v>1400000</v>
@@ -45911,17 +45912,17 @@
     </row>
     <row r="68" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B68" s="466" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C68" s="466" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D68" s="466" t="str">
         <f t="shared" ref="D68:D112" si="4">IF(LEFT(B68,1)="A","연구부",IF(LEFT(B68,1)="B","관리부","경리부"))</f>
         <v>관리부</v>
       </c>
       <c r="E68" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F68" s="467">
         <v>1400000</v>
@@ -45944,17 +45945,17 @@
     </row>
     <row r="69" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B69" s="466" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C69" s="466" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D69" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E69" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F69" s="467">
         <v>1300000</v>
@@ -45977,17 +45978,17 @@
     </row>
     <row r="70" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B70" s="463" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C70" s="466" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D70" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E70" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F70" s="467">
         <v>1300000</v>
@@ -46010,17 +46011,17 @@
     </row>
     <row r="71" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B71" s="466" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C71" s="466" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D71" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E71" s="466" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F71" s="467">
         <v>1305555.5555555599</v>
@@ -46043,17 +46044,17 @@
     </row>
     <row r="72" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B72" s="466" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C72" s="466" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D72" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E72" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F72" s="467">
         <v>1288888.8888888899</v>
@@ -46076,17 +46077,17 @@
     </row>
     <row r="73" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B73" s="463" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C73" s="466" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D73" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E73" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F73" s="467">
         <v>1272222.2222222199</v>
@@ -46109,17 +46110,17 @@
     </row>
     <row r="74" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B74" s="466" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C74" s="466" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D74" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E74" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F74" s="467">
         <v>1255555.5555555599</v>
@@ -46142,17 +46143,17 @@
     </row>
     <row r="75" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B75" s="466" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C75" s="466" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D75" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E75" s="466" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F75" s="467">
         <v>1238888.8888888899</v>
@@ -46175,17 +46176,17 @@
     </row>
     <row r="76" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B76" s="463" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C76" s="466" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D76" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E76" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F76" s="467">
         <v>1222222.2222222199</v>
@@ -46208,17 +46209,17 @@
     </row>
     <row r="77" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B77" s="466" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C77" s="466" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D77" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E77" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F77" s="467">
         <v>1205555.5555555599</v>
@@ -46241,17 +46242,17 @@
     </row>
     <row r="78" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B78" s="466" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C78" s="466" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D78" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E78" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F78" s="467">
         <v>1188888.8888888899</v>
@@ -46274,17 +46275,17 @@
     </row>
     <row r="79" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B79" s="463" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C79" s="466" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D79" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E79" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F79" s="467">
         <v>1172222.2222222199</v>
@@ -46307,17 +46308,17 @@
     </row>
     <row r="80" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B80" s="466" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C80" s="466" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D80" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E80" s="466" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F80" s="467">
         <v>1155555.5555555599</v>
@@ -46340,17 +46341,17 @@
     </row>
     <row r="81" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B81" s="466" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C81" s="466" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D81" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E81" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F81" s="467">
         <v>1138888.8888888899</v>
@@ -46373,17 +46374,17 @@
     </row>
     <row r="82" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B82" s="463" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C82" s="466" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D82" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E82" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F82" s="467">
         <v>1122222.2222222199</v>
@@ -46406,17 +46407,17 @@
     </row>
     <row r="83" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B83" s="466" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C83" s="466" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D83" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E83" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F83" s="467">
         <v>1105555.5555555599</v>
@@ -46439,17 +46440,17 @@
     </row>
     <row r="84" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B84" s="466" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C84" s="466" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D84" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E84" s="466" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F84" s="467">
         <v>1088888.8888888899</v>
@@ -46472,17 +46473,17 @@
     </row>
     <row r="85" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B85" s="463" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C85" s="466" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D85" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E85" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F85" s="467">
         <v>1072222.2222222199</v>
@@ -46505,17 +46506,17 @@
     </row>
     <row r="86" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B86" s="466" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C86" s="466" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D86" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E86" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F86" s="467">
         <v>1055555.5555555599</v>
@@ -46538,17 +46539,17 @@
     </row>
     <row r="87" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B87" s="466" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C87" s="466" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D87" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E87" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F87" s="467">
         <v>1038888.88888889</v>
@@ -46571,17 +46572,17 @@
     </row>
     <row r="88" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B88" s="463" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C88" s="466" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D88" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E88" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F88" s="467">
         <v>1022222.22222222</v>
@@ -46604,17 +46605,17 @@
     </row>
     <row r="89" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B89" s="466" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C89" s="466" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D89" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E89" s="466" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F89" s="467">
         <v>1005555.55555556</v>
@@ -46637,17 +46638,17 @@
     </row>
     <row r="90" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B90" s="466" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C90" s="466" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D90" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E90" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F90" s="467">
         <v>988888.88888888899</v>
@@ -46670,17 +46671,17 @@
     </row>
     <row r="91" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B91" s="463" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C91" s="466" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D91" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E91" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F91" s="467">
         <v>972222.22222222202</v>
@@ -46703,17 +46704,17 @@
     </row>
     <row r="92" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B92" s="466" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C92" s="466" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D92" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E92" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F92" s="467">
         <v>955555.55555555597</v>
@@ -46736,17 +46737,17 @@
     </row>
     <row r="93" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B93" s="466" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C93" s="466" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D93" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E93" s="466" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F93" s="467">
         <v>938888.88888888899</v>
@@ -46769,17 +46770,17 @@
     </row>
     <row r="94" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B94" s="463" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C94" s="466" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D94" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E94" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F94" s="467">
         <v>922222.22222222202</v>
@@ -46802,17 +46803,17 @@
     </row>
     <row r="95" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B95" s="466" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C95" s="466" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D95" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E95" s="466" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F95" s="467">
         <v>905555.55555555597</v>
@@ -46835,17 +46836,17 @@
     </row>
     <row r="96" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B96" s="466" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C96" s="466" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D96" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E96" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F96" s="467">
         <v>888888.88888888899</v>
@@ -46868,17 +46869,17 @@
     </row>
     <row r="97" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B97" s="463" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C97" s="466" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D97" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E97" s="466" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F97" s="467">
         <v>872222.22222222202</v>
@@ -46901,17 +46902,17 @@
     </row>
     <row r="98" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B98" s="466" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C98" s="466" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D98" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E98" s="466" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F98" s="467">
         <v>855555.55555555597</v>
@@ -46934,17 +46935,17 @@
     </row>
     <row r="99" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B99" s="466" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C99" s="466" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D99" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E99" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F99" s="467">
         <v>838888.88888888899</v>
@@ -46967,17 +46968,17 @@
     </row>
     <row r="100" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B100" s="463" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="C100" s="466" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D100" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E100" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F100" s="467">
         <v>822222.22222222202</v>
@@ -47000,17 +47001,17 @@
     </row>
     <row r="101" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B101" s="466" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="C101" s="466" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D101" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E101" s="466" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F101" s="467">
         <v>805555.55555555597</v>
@@ -47033,17 +47034,17 @@
     </row>
     <row r="102" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B102" s="466" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="C102" s="466" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D102" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E102" s="466" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F102" s="467">
         <v>788888.88888888899</v>
@@ -47066,17 +47067,17 @@
     </row>
     <row r="103" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B103" s="463" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="C103" s="466" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D103" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E103" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F103" s="467">
         <v>772222.22222222202</v>
@@ -47099,17 +47100,17 @@
     </row>
     <row r="104" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B104" s="466" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="C104" s="466" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D104" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E104" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F104" s="467">
         <v>755555.55555555597</v>
@@ -47132,17 +47133,17 @@
     </row>
     <row r="105" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B105" s="466" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="C105" s="466" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D105" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E105" s="466" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F105" s="467">
         <v>738888.88888888899</v>
@@ -47165,17 +47166,17 @@
     </row>
     <row r="106" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B106" s="463" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="C106" s="466" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D106" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E106" s="466" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F106" s="467">
         <v>722222.22222222202</v>
@@ -47198,17 +47199,17 @@
     </row>
     <row r="107" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B107" s="466" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="C107" s="466" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D107" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E107" s="466" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F107" s="467">
         <v>705555.55555555597</v>
@@ -47231,17 +47232,17 @@
     </row>
     <row r="108" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B108" s="466" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="C108" s="466" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D108" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E108" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F108" s="467">
         <v>688888.88888888899</v>
@@ -47264,17 +47265,17 @@
     </row>
     <row r="109" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B109" s="463" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="C109" s="466" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D109" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E109" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F109" s="467">
         <v>672222.22222222202</v>
@@ -47297,17 +47298,17 @@
     </row>
     <row r="110" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B110" s="466" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="C110" s="466" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D110" s="466" t="str">
         <f t="shared" si="4"/>
         <v>관리부</v>
       </c>
       <c r="E110" s="466" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F110" s="467">
         <v>655555.55555555597</v>
@@ -47330,17 +47331,17 @@
     </row>
     <row r="111" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B111" s="466" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="C111" s="466" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D111" s="466" t="str">
         <f t="shared" si="4"/>
         <v>경리부</v>
       </c>
       <c r="E111" s="466" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F111" s="467">
         <v>638888.88888888899</v>
@@ -47363,17 +47364,17 @@
     </row>
     <row r="112" spans="2:10" ht="17.100000000000001" customHeight="1">
       <c r="B112" s="463" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="C112" s="466" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D112" s="466" t="str">
         <f t="shared" si="4"/>
         <v>연구부</v>
       </c>
       <c r="E112" s="466" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F112" s="467">
         <v>622222.22222222202</v>
@@ -47412,7 +47413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -48068,125 +48069,125 @@
   <sheetData>
     <row r="1" spans="2:9" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:9" ht="33.75">
-      <c r="B2" s="898" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C2" s="898"/>
-      <c r="D2" s="898"/>
-      <c r="E2" s="898"/>
-      <c r="F2" s="898"/>
-      <c r="G2" s="898"/>
-      <c r="H2" s="898"/>
-      <c r="I2" s="898"/>
+      <c r="B2" s="919" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C2" s="919"/>
+      <c r="D2" s="919"/>
+      <c r="E2" s="919"/>
+      <c r="F2" s="919"/>
+      <c r="G2" s="919"/>
+      <c r="H2" s="919"/>
+      <c r="I2" s="919"/>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B4" s="899">
+      <c r="B4" s="920">
         <f ca="1">TODAY()</f>
-        <v>40924</v>
-      </c>
-      <c r="C4" s="899"/>
-      <c r="E4" s="900" t="s">
+        <v>44907</v>
+      </c>
+      <c r="C4" s="920"/>
+      <c r="E4" s="921" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F4" s="743" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G4" s="924" t="s">
         <v>2040</v>
       </c>
-      <c r="F4" s="743" t="s">
+      <c r="H4" s="924"/>
+      <c r="I4" s="925"/>
+    </row>
+    <row r="5" spans="2:9" ht="22.5" customHeight="1">
+      <c r="B5" s="926" t="s">
         <v>2041</v>
       </c>
-      <c r="G4" s="903" t="s">
+      <c r="C5" s="926"/>
+      <c r="E5" s="922"/>
+      <c r="F5" s="744" t="s">
         <v>2042</v>
       </c>
-      <c r="H4" s="903"/>
-      <c r="I4" s="904"/>
-    </row>
-    <row r="5" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B5" s="905" t="s">
+      <c r="G5" s="745" t="s">
         <v>2043</v>
       </c>
-      <c r="C5" s="905"/>
-      <c r="E5" s="901"/>
-      <c r="F5" s="744" t="s">
+      <c r="H5" s="745" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I5" s="746" t="s">
         <v>2044</v>
       </c>
-      <c r="G5" s="745" t="s">
+    </row>
+    <row r="6" spans="2:9" ht="22.5" customHeight="1">
+      <c r="B6" s="927" t="s">
         <v>2045</v>
       </c>
-      <c r="H5" s="745" t="s">
-        <v>1658</v>
-      </c>
-      <c r="I5" s="746" t="s">
+      <c r="C6" s="927"/>
+      <c r="E6" s="922"/>
+      <c r="F6" s="745" t="s">
         <v>2046</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B6" s="906" t="s">
+      <c r="G6" s="928" t="s">
         <v>2047</v>
       </c>
-      <c r="C6" s="906"/>
-      <c r="E6" s="901"/>
-      <c r="F6" s="745" t="s">
-        <v>2048</v>
-      </c>
-      <c r="G6" s="907" t="s">
-        <v>2049</v>
-      </c>
-      <c r="H6" s="907"/>
-      <c r="I6" s="908"/>
+      <c r="H6" s="928"/>
+      <c r="I6" s="929"/>
     </row>
     <row r="7" spans="2:9" ht="22.5" customHeight="1" thickBot="1">
       <c r="B7" s="742" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="C7" s="747">
         <f>H31</f>
         <v>1873300</v>
       </c>
       <c r="D7" s="742" t="s">
-        <v>2051</v>
-      </c>
-      <c r="E7" s="902"/>
+        <v>2049</v>
+      </c>
+      <c r="E7" s="923"/>
       <c r="F7" s="748" t="s">
-        <v>2052</v>
-      </c>
-      <c r="G7" s="909">
+        <v>2050</v>
+      </c>
+      <c r="G7" s="930">
         <v>647635555</v>
       </c>
-      <c r="H7" s="909"/>
-      <c r="I7" s="910"/>
+      <c r="H7" s="930"/>
+      <c r="I7" s="931"/>
     </row>
     <row r="8" spans="2:9" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="749" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C8" s="750" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D8" s="917" t="s">
         <v>2053</v>
       </c>
-      <c r="C8" s="750" t="s">
+      <c r="E8" s="917"/>
+      <c r="F8" s="751" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G8" s="750" t="s">
         <v>2054</v>
       </c>
-      <c r="D8" s="911" t="s">
+      <c r="H8" s="917" t="s">
         <v>2055</v>
       </c>
-      <c r="E8" s="911"/>
-      <c r="F8" s="751" t="s">
-        <v>1766</v>
-      </c>
-      <c r="G8" s="750" t="s">
-        <v>2056</v>
-      </c>
-      <c r="H8" s="911" t="s">
-        <v>2057</v>
-      </c>
-      <c r="I8" s="912"/>
+      <c r="I8" s="918"/>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" thickTop="1">
       <c r="B9" s="752">
         <v>1</v>
       </c>
       <c r="C9" s="753" t="s">
-        <v>2058</v>
-      </c>
-      <c r="D9" s="913" t="str">
+        <v>2056</v>
+      </c>
+      <c r="D9" s="909" t="str">
         <f>IF(ISBLANK(C9),"",VLOOKUP(C9,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v>개</v>
       </c>
-      <c r="E9" s="913"/>
+      <c r="E9" s="909"/>
       <c r="F9" s="754">
         <v>5</v>
       </c>
@@ -48194,24 +48195,24 @@
         <f>IF(ISBLANK(C9),"",VLOOKUP(C9,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v>135000</v>
       </c>
-      <c r="H9" s="914">
+      <c r="H9" s="915">
         <f>IF(ISERROR(F9*G9),"",F9*G9)</f>
         <v>675000</v>
       </c>
-      <c r="I9" s="915"/>
+      <c r="I9" s="916"/>
     </row>
     <row r="10" spans="2:9" ht="18" customHeight="1">
       <c r="B10" s="755">
         <v>2</v>
       </c>
       <c r="C10" s="756" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D10" s="913" t="str">
+        <v>2057</v>
+      </c>
+      <c r="D10" s="909" t="str">
         <f>IF(ISBLANK(C10),"",VLOOKUP(C10,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v>Box</v>
       </c>
-      <c r="E10" s="913"/>
+      <c r="E10" s="909"/>
       <c r="F10" s="757">
         <v>2</v>
       </c>
@@ -48219,24 +48220,24 @@
         <f>IF(ISBLANK(C10),"",VLOOKUP(C10,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v>49000</v>
       </c>
-      <c r="H10" s="914">
+      <c r="H10" s="915">
         <f t="shared" ref="H10:H28" si="0">IF(ISERROR(F10*G10),"",F10*G10)</f>
         <v>98000</v>
       </c>
-      <c r="I10" s="915"/>
+      <c r="I10" s="916"/>
     </row>
     <row r="11" spans="2:9" ht="18" customHeight="1">
       <c r="B11" s="755">
         <v>3</v>
       </c>
       <c r="C11" s="756" t="s">
-        <v>2060</v>
-      </c>
-      <c r="D11" s="913" t="str">
+        <v>2058</v>
+      </c>
+      <c r="D11" s="909" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v>Box</v>
       </c>
-      <c r="E11" s="913"/>
+      <c r="E11" s="909"/>
       <c r="F11" s="758">
         <v>5</v>
       </c>
@@ -48244,24 +48245,24 @@
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v>150000</v>
       </c>
-      <c r="H11" s="914">
+      <c r="H11" s="915">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="I11" s="915"/>
+      <c r="I11" s="916"/>
     </row>
     <row r="12" spans="2:9" ht="18" customHeight="1">
       <c r="B12" s="755">
         <v>4</v>
       </c>
       <c r="C12" s="756" t="s">
-        <v>2061</v>
-      </c>
-      <c r="D12" s="913" t="str">
+        <v>2059</v>
+      </c>
+      <c r="D12" s="909" t="str">
         <f>IF(ISBLANK(C12),"",VLOOKUP(C12,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v>Box</v>
       </c>
-      <c r="E12" s="913"/>
+      <c r="E12" s="909"/>
       <c r="F12" s="757">
         <v>3</v>
       </c>
@@ -48269,471 +48270,422 @@
         <f>IF(ISBLANK(C12),"",VLOOKUP(C12,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v>60000</v>
       </c>
-      <c r="H12" s="914">
+      <c r="H12" s="915">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="I12" s="915"/>
+      <c r="I12" s="916"/>
     </row>
     <row r="13" spans="2:9" ht="18" customHeight="1">
       <c r="B13" s="755">
         <v>5</v>
       </c>
       <c r="C13" s="759"/>
-      <c r="D13" s="913" t="str">
+      <c r="D13" s="909" t="str">
         <f>IF(ISBLANK(C13),"",VLOOKUP(C13,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E13" s="913"/>
+      <c r="E13" s="909"/>
       <c r="F13" s="757"/>
       <c r="G13" s="754" t="str">
         <f>IF(ISBLANK(C13),"",VLOOKUP(C13,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H13" s="914" t="str">
+      <c r="H13" s="915" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I13" s="915"/>
+      <c r="I13" s="916"/>
     </row>
     <row r="14" spans="2:9" ht="18" customHeight="1">
       <c r="B14" s="755">
         <v>6</v>
       </c>
       <c r="C14" s="756"/>
-      <c r="D14" s="913" t="str">
+      <c r="D14" s="909" t="str">
         <f>IF(ISBLANK(C14),"",VLOOKUP(C14,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E14" s="913"/>
+      <c r="E14" s="909"/>
       <c r="F14" s="757"/>
       <c r="G14" s="754" t="str">
         <f>IF(ISBLANK(C14),"",VLOOKUP(C14,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H14" s="914" t="str">
+      <c r="H14" s="915" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" s="915"/>
+      <c r="I14" s="916"/>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1">
       <c r="B15" s="755">
         <v>7</v>
       </c>
       <c r="C15" s="756"/>
-      <c r="D15" s="913" t="str">
+      <c r="D15" s="909" t="str">
         <f>IF(ISBLANK(C15),"",VLOOKUP(C15,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E15" s="913"/>
+      <c r="E15" s="909"/>
       <c r="F15" s="757"/>
       <c r="G15" s="754" t="str">
         <f>IF(ISBLANK(C15),"",VLOOKUP(C15,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H15" s="914" t="str">
+      <c r="H15" s="915" t="str">
         <f>IF(ISERROR(F15*G15),"",F15*G15)</f>
         <v/>
       </c>
-      <c r="I15" s="915"/>
+      <c r="I15" s="916"/>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1">
       <c r="B16" s="755">
         <v>8</v>
       </c>
       <c r="C16" s="756"/>
-      <c r="D16" s="913" t="str">
+      <c r="D16" s="909" t="str">
         <f>IF(ISBLANK(C16),"",VLOOKUP(C16,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E16" s="913"/>
+      <c r="E16" s="909"/>
       <c r="F16" s="757"/>
       <c r="G16" s="754" t="str">
         <f>IF(ISBLANK(C16),"",VLOOKUP(C16,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H16" s="914" t="str">
+      <c r="H16" s="915" t="str">
         <f>IF(ISERROR(F16*G16),"",F16*G16)</f>
         <v/>
       </c>
-      <c r="I16" s="915"/>
+      <c r="I16" s="916"/>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1">
       <c r="B17" s="755">
         <v>9</v>
       </c>
       <c r="C17" s="756"/>
-      <c r="D17" s="913" t="str">
+      <c r="D17" s="909" t="str">
         <f>IF(ISBLANK(C17),"",VLOOKUP(C17,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E17" s="913"/>
+      <c r="E17" s="909"/>
       <c r="F17" s="757"/>
       <c r="G17" s="754" t="str">
         <f>IF(ISBLANK(C17),"",VLOOKUP(C17,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H17" s="914" t="str">
+      <c r="H17" s="915" t="str">
         <f>IF(ISERROR(F17*G17),"",F17*G17)</f>
         <v/>
       </c>
-      <c r="I17" s="915"/>
+      <c r="I17" s="916"/>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1">
       <c r="B18" s="755">
         <v>10</v>
       </c>
       <c r="C18" s="756"/>
-      <c r="D18" s="913" t="str">
+      <c r="D18" s="909" t="str">
         <f>IF(ISBLANK(C18),"",VLOOKUP(C18,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E18" s="913"/>
+      <c r="E18" s="909"/>
       <c r="F18" s="757"/>
       <c r="G18" s="754" t="str">
         <f>IF(ISBLANK(C18),"",VLOOKUP(C18,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H18" s="914" t="str">
+      <c r="H18" s="915" t="str">
         <f>IF(ISERROR(F18*G18),"",F18*G18)</f>
         <v/>
       </c>
-      <c r="I18" s="915"/>
+      <c r="I18" s="916"/>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1">
       <c r="B19" s="755">
         <v>11</v>
       </c>
       <c r="C19" s="756"/>
-      <c r="D19" s="913" t="str">
+      <c r="D19" s="909" t="str">
         <f>IF(ISBLANK(C19),"",VLOOKUP(C19,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E19" s="913"/>
+      <c r="E19" s="909"/>
       <c r="F19" s="757"/>
       <c r="G19" s="754" t="str">
         <f>IF(ISBLANK(C19),"",VLOOKUP(C19,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H19" s="914" t="str">
+      <c r="H19" s="915" t="str">
         <f>IF(ISERROR(F19*G19),"",F19*G19)</f>
         <v/>
       </c>
-      <c r="I19" s="915"/>
+      <c r="I19" s="916"/>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1">
       <c r="B20" s="755">
         <v>12</v>
       </c>
       <c r="C20" s="756"/>
-      <c r="D20" s="913" t="str">
+      <c r="D20" s="909" t="str">
         <f>IF(ISBLANK(C20),"",VLOOKUP(C20,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E20" s="913"/>
+      <c r="E20" s="909"/>
       <c r="F20" s="757"/>
       <c r="G20" s="754" t="str">
         <f>IF(ISBLANK(C20),"",VLOOKUP(C20,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H20" s="914" t="str">
+      <c r="H20" s="915" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I20" s="915"/>
+      <c r="I20" s="916"/>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1">
       <c r="B21" s="755">
         <v>13</v>
       </c>
       <c r="C21" s="756"/>
-      <c r="D21" s="913" t="str">
+      <c r="D21" s="909" t="str">
         <f>IF(ISBLANK(C21),"",VLOOKUP(C21,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E21" s="913"/>
+      <c r="E21" s="909"/>
       <c r="F21" s="757"/>
       <c r="G21" s="754" t="str">
         <f>IF(ISBLANK(C21),"",VLOOKUP(C21,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H21" s="914" t="str">
+      <c r="H21" s="915" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I21" s="915"/>
+      <c r="I21" s="916"/>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1">
       <c r="B22" s="755">
         <v>14</v>
       </c>
       <c r="C22" s="756"/>
-      <c r="D22" s="913" t="str">
+      <c r="D22" s="909" t="str">
         <f>IF(ISBLANK(C22),"",VLOOKUP(C22,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E22" s="913"/>
+      <c r="E22" s="909"/>
       <c r="F22" s="757"/>
       <c r="G22" s="754" t="str">
         <f>IF(ISBLANK(C22),"",VLOOKUP(C22,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H22" s="914" t="str">
+      <c r="H22" s="915" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I22" s="915"/>
+      <c r="I22" s="916"/>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1">
       <c r="B23" s="755">
         <v>15</v>
       </c>
       <c r="C23" s="756"/>
-      <c r="D23" s="913" t="str">
+      <c r="D23" s="909" t="str">
         <f>IF(ISBLANK(C23),"",VLOOKUP(C23,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E23" s="913"/>
+      <c r="E23" s="909"/>
       <c r="F23" s="757"/>
       <c r="G23" s="754" t="str">
         <f>IF(ISBLANK(C23),"",VLOOKUP(C23,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H23" s="914" t="str">
+      <c r="H23" s="915" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I23" s="915"/>
+      <c r="I23" s="916"/>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1">
       <c r="B24" s="755">
         <v>16</v>
       </c>
       <c r="C24" s="756"/>
-      <c r="D24" s="913" t="str">
+      <c r="D24" s="909" t="str">
         <f>IF(ISBLANK(C24),"",VLOOKUP(C24,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E24" s="913"/>
+      <c r="E24" s="909"/>
       <c r="F24" s="757"/>
       <c r="G24" s="754" t="str">
         <f>IF(ISBLANK(C24),"",VLOOKUP(C24,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H24" s="914" t="str">
+      <c r="H24" s="915" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I24" s="915"/>
+      <c r="I24" s="916"/>
     </row>
     <row r="25" spans="2:9" ht="18" customHeight="1">
       <c r="B25" s="755">
         <v>17</v>
       </c>
       <c r="C25" s="756"/>
-      <c r="D25" s="913" t="str">
+      <c r="D25" s="909" t="str">
         <f>IF(ISBLANK(C25),"",VLOOKUP(C25,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E25" s="913"/>
+      <c r="E25" s="909"/>
       <c r="F25" s="757"/>
       <c r="G25" s="754" t="str">
         <f>IF(ISBLANK(C25),"",VLOOKUP(C25,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H25" s="914" t="str">
+      <c r="H25" s="915" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I25" s="915"/>
+      <c r="I25" s="916"/>
     </row>
     <row r="26" spans="2:9" ht="18" customHeight="1">
       <c r="B26" s="755">
         <v>18</v>
       </c>
       <c r="C26" s="756"/>
-      <c r="D26" s="913" t="str">
+      <c r="D26" s="909" t="str">
         <f>IF(ISBLANK(C26),"",VLOOKUP(C26,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E26" s="913"/>
+      <c r="E26" s="909"/>
       <c r="F26" s="757"/>
       <c r="G26" s="754" t="str">
         <f>IF(ISBLANK(C26),"",VLOOKUP(C26,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H26" s="916" t="str">
+      <c r="H26" s="910" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I26" s="917"/>
+      <c r="I26" s="911"/>
     </row>
     <row r="27" spans="2:9" ht="18" customHeight="1">
       <c r="B27" s="755">
         <v>19</v>
       </c>
       <c r="C27" s="756"/>
-      <c r="D27" s="913" t="str">
+      <c r="D27" s="909" t="str">
         <f>IF(ISBLANK(C27),"",VLOOKUP(C27,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E27" s="913"/>
+      <c r="E27" s="909"/>
       <c r="F27" s="757"/>
       <c r="G27" s="754" t="str">
         <f>IF(ISBLANK(C27),"",VLOOKUP(C27,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H27" s="916" t="str">
+      <c r="H27" s="910" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I27" s="917"/>
+      <c r="I27" s="911"/>
     </row>
     <row r="28" spans="2:9" ht="18" customHeight="1" thickBot="1">
       <c r="B28" s="760">
         <v>20</v>
       </c>
       <c r="C28" s="761"/>
-      <c r="D28" s="918" t="str">
+      <c r="D28" s="912" t="str">
         <f>IF(ISBLANK(C28),"",VLOOKUP(C28,제품목록!$A$1:$C$21,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E28" s="918"/>
+      <c r="E28" s="912"/>
       <c r="F28" s="762"/>
       <c r="G28" s="762" t="str">
         <f>IF(ISBLANK(C28),"",VLOOKUP(C28,제품목록!$A$1:$C$21,3,FALSE))</f>
         <v/>
       </c>
-      <c r="H28" s="919" t="str">
+      <c r="H28" s="913" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I28" s="920"/>
+      <c r="I28" s="914"/>
     </row>
     <row r="29" spans="2:9" ht="23.25" customHeight="1" thickTop="1">
       <c r="B29" s="763" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C29" s="764"/>
-      <c r="D29" s="923" t="s">
-        <v>2063</v>
-      </c>
-      <c r="E29" s="923"/>
-      <c r="F29" s="923"/>
-      <c r="G29" s="923"/>
-      <c r="H29" s="924">
+      <c r="D29" s="900" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E29" s="900"/>
+      <c r="F29" s="900"/>
+      <c r="G29" s="900"/>
+      <c r="H29" s="901">
         <f>SUM(H9:I28)</f>
         <v>1703000</v>
       </c>
-      <c r="I29" s="925"/>
+      <c r="I29" s="902"/>
     </row>
     <row r="30" spans="2:9" ht="23.25" customHeight="1">
       <c r="B30" s="765"/>
       <c r="C30" s="766"/>
-      <c r="D30" s="926" t="s">
-        <v>2064</v>
-      </c>
-      <c r="E30" s="926"/>
-      <c r="F30" s="926"/>
-      <c r="G30" s="926"/>
-      <c r="H30" s="927">
+      <c r="D30" s="903" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E30" s="903"/>
+      <c r="F30" s="903"/>
+      <c r="G30" s="903"/>
+      <c r="H30" s="904">
         <f>H29*10%</f>
         <v>170300</v>
       </c>
-      <c r="I30" s="928"/>
+      <c r="I30" s="905"/>
     </row>
     <row r="31" spans="2:9" ht="23.25" customHeight="1" thickBot="1">
       <c r="B31" s="767"/>
       <c r="C31" s="768"/>
-      <c r="D31" s="929" t="s">
-        <v>2065</v>
-      </c>
-      <c r="E31" s="929"/>
-      <c r="F31" s="929"/>
-      <c r="G31" s="929"/>
-      <c r="H31" s="930">
+      <c r="D31" s="906" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E31" s="906"/>
+      <c r="F31" s="906"/>
+      <c r="G31" s="906"/>
+      <c r="H31" s="907">
         <f>H29+H30</f>
         <v>1873300</v>
       </c>
-      <c r="I31" s="931"/>
+      <c r="I31" s="908"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1">
       <c r="B32" s="742" t="s">
-        <v>2066</v>
-      </c>
-      <c r="G32" s="921" t="s">
-        <v>2045</v>
-      </c>
-      <c r="H32" s="921"/>
-      <c r="I32" s="921"/>
+        <v>2064</v>
+      </c>
+      <c r="G32" s="898" t="s">
+        <v>2043</v>
+      </c>
+      <c r="H32" s="898"/>
+      <c r="I32" s="898"/>
     </row>
     <row r="33" spans="2:9" ht="16.5" customHeight="1">
       <c r="B33" s="742" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="C33" s="769">
         <f ca="1">B4+30</f>
-        <v>40954</v>
+        <v>44937</v>
       </c>
       <c r="D33" s="742" t="s">
-        <v>2068</v>
-      </c>
-      <c r="G33" s="922"/>
-      <c r="H33" s="922"/>
-      <c r="I33" s="922"/>
+        <v>2066</v>
+      </c>
+      <c r="G33" s="899"/>
+      <c r="H33" s="899"/>
+      <c r="I33" s="899"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="G32:I33"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E7"/>
@@ -48742,6 +48694,55 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="G32:I33"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:I31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -48752,7 +48753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -49280,51 +49281,51 @@
   <sheetData>
     <row r="1" spans="2:7" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:7" ht="33.75">
-      <c r="B2" s="898" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C2" s="898"/>
-      <c r="D2" s="898"/>
-      <c r="E2" s="898"/>
-      <c r="F2" s="898"/>
-      <c r="G2" s="898"/>
+      <c r="B2" s="919" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C2" s="919"/>
+      <c r="D2" s="919"/>
+      <c r="E2" s="919"/>
+      <c r="F2" s="919"/>
+      <c r="G2" s="919"/>
     </row>
     <row r="3" spans="2:7" ht="20.25" customHeight="1"/>
     <row r="4" spans="2:7" ht="22.5" customHeight="1">
-      <c r="B4" s="899">
+      <c r="B4" s="920">
         <f ca="1">TODAY()</f>
-        <v>40924</v>
-      </c>
-      <c r="C4" s="899"/>
+        <v>44907</v>
+      </c>
+      <c r="C4" s="920"/>
       <c r="E4" s="770"/>
-      <c r="F4" s="905"/>
-      <c r="G4" s="905"/>
+      <c r="F4" s="926"/>
+      <c r="G4" s="926"/>
     </row>
     <row r="5" spans="2:7" ht="22.5" customHeight="1">
-      <c r="B5" s="905" t="s">
-        <v>2043</v>
-      </c>
-      <c r="C5" s="905"/>
+      <c r="B5" s="926" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C5" s="926"/>
       <c r="E5" s="771"/>
       <c r="F5" s="770"/>
       <c r="G5" s="770"/>
     </row>
     <row r="6" spans="2:7" ht="22.5" customHeight="1">
-      <c r="B6" s="906" t="s">
-        <v>2047</v>
-      </c>
-      <c r="C6" s="906"/>
+      <c r="B6" s="927" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C6" s="927"/>
       <c r="E6" s="770"/>
-      <c r="F6" s="905"/>
-      <c r="G6" s="905"/>
+      <c r="F6" s="926"/>
+      <c r="G6" s="926"/>
     </row>
     <row r="7" spans="2:7" ht="22.5" customHeight="1" thickBot="1">
       <c r="B7" s="742" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="C7" s="747"/>
       <c r="D7" s="742" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="E7" s="772"/>
       <c r="F7" s="932"/>
@@ -49332,22 +49333,22 @@
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="749" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C8" s="750" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D8" s="750" t="s">
         <v>2053</v>
       </c>
-      <c r="C8" s="750" t="s">
+      <c r="E8" s="773" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F8" s="774" t="s">
         <v>2054</v>
       </c>
-      <c r="D8" s="750" t="s">
+      <c r="G8" s="774" t="s">
         <v>2055</v>
-      </c>
-      <c r="E8" s="773" t="s">
-        <v>1766</v>
-      </c>
-      <c r="F8" s="774" t="s">
-        <v>2056</v>
-      </c>
-      <c r="G8" s="774" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" thickTop="1">
@@ -49552,69 +49553,69 @@
     </row>
     <row r="29" spans="2:7" ht="23.25" customHeight="1" thickTop="1">
       <c r="B29" s="763" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C29" s="764"/>
-      <c r="D29" s="923" t="s">
-        <v>2063</v>
-      </c>
-      <c r="E29" s="923"/>
-      <c r="F29" s="923"/>
+      <c r="D29" s="900" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E29" s="900"/>
+      <c r="F29" s="900"/>
       <c r="G29" s="740"/>
     </row>
     <row r="30" spans="2:7" ht="23.25" customHeight="1">
       <c r="B30" s="765"/>
       <c r="C30" s="766"/>
-      <c r="D30" s="926" t="s">
-        <v>2064</v>
-      </c>
-      <c r="E30" s="926"/>
-      <c r="F30" s="926"/>
+      <c r="D30" s="903" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E30" s="903"/>
+      <c r="F30" s="903"/>
       <c r="G30" s="741"/>
     </row>
     <row r="31" spans="2:7" ht="23.25" customHeight="1" thickBot="1">
       <c r="B31" s="767"/>
       <c r="C31" s="768"/>
-      <c r="D31" s="929" t="s">
-        <v>2065</v>
-      </c>
-      <c r="E31" s="929"/>
-      <c r="F31" s="929"/>
+      <c r="D31" s="906" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E31" s="906"/>
+      <c r="F31" s="906"/>
       <c r="G31" s="778"/>
     </row>
     <row r="32" spans="2:7" ht="16.5" customHeight="1">
       <c r="B32" s="742" t="s">
-        <v>2066</v>
-      </c>
-      <c r="F32" s="921" t="s">
-        <v>2045</v>
-      </c>
-      <c r="G32" s="921"/>
+        <v>2064</v>
+      </c>
+      <c r="F32" s="898" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G32" s="898"/>
     </row>
     <row r="33" spans="2:7" ht="16.5" customHeight="1">
       <c r="B33" s="742" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="C33" s="769"/>
       <c r="D33" s="742" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F33" s="922"/>
-      <c r="G33" s="922"/>
+        <v>2066</v>
+      </c>
+      <c r="F33" s="899"/>
+      <c r="G33" s="899"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="F32:G33"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="F32:G33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -49625,7 +49626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49894,10 +49895,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="742" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B1" s="742" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="C1" s="742" t="s">
         <v>777</v>
@@ -49905,10 +49906,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="742" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="B2" s="742" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="C2" s="779">
         <v>120000</v>
@@ -49916,10 +49917,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="742" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B3" s="742" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="C3" s="779">
         <v>150000</v>
@@ -49927,10 +49928,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="742" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B4" s="742" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="C4" s="779">
         <v>200000</v>
@@ -49938,10 +49939,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="742" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B5" s="742" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C5" s="779">
         <v>5000</v>
@@ -49949,10 +49950,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="742" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="B6" s="742" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C6" s="779">
         <v>3000</v>
@@ -49960,10 +49961,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="742" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B7" s="742" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C7" s="779">
         <v>70000</v>
@@ -49971,10 +49972,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="742" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="B8" s="742" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="C8" s="779">
         <v>140000</v>
@@ -49982,10 +49983,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="742" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B9" s="742" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C9" s="779">
         <v>7000</v>
@@ -49993,10 +49994,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="742" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="B10" s="742" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="C10" s="779">
         <v>60000</v>
@@ -50004,10 +50005,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="742" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B11" s="742" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="C11" s="779">
         <v>35000</v>
@@ -50015,10 +50016,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="742" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="B12" s="742" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="C12" s="779">
         <v>25000</v>
@@ -50026,10 +50027,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="742" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="B13" s="742" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="C13" s="779">
         <v>70000</v>
@@ -50037,10 +50038,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="742" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B14" s="742" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="C14" s="779">
         <v>30000</v>
@@ -50048,10 +50049,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="742" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="B15" s="742" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="C15" s="779">
         <v>16000</v>
@@ -50059,10 +50060,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="742" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B16" s="742" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C16" s="779">
         <v>23000</v>
@@ -50070,10 +50071,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="742" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="B17" s="742" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C17" s="779">
         <v>100000</v>
@@ -50081,10 +50082,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="742" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="B18" s="742" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C18" s="779">
         <v>135000</v>
@@ -50092,10 +50093,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="742" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B19" s="742" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="C19" s="779">
         <v>49000</v>
@@ -50103,10 +50104,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="742" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="B20" s="742" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="C20" s="779">
         <v>55000</v>
@@ -50114,10 +50115,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="742" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B21" s="742" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="C21" s="779">
         <v>85000</v>
@@ -50131,7 +50132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50592,7 +50593,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="543" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C2" s="543"/>
       <c r="D2" s="543"/>
@@ -50603,7 +50604,7 @@
       <c r="C3" s="543"/>
       <c r="D3" s="543"/>
       <c r="E3" s="683" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -50611,18 +50612,18 @@
         <v>55</v>
       </c>
       <c r="C4" s="684" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D4" s="684" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E4" s="684" t="s">
         <v>1737</v>
-      </c>
-      <c r="D4" s="684" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E4" s="684" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="684" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C5" s="685">
         <v>500</v>
@@ -50636,7 +50637,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="684" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C6" s="685">
         <v>300</v>
@@ -50650,7 +50651,7 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="684" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C7" s="685">
         <v>200</v>
@@ -50664,7 +50665,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="684" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C8" s="687">
         <f>SUM(C5:C7)</f>
@@ -50700,7 +50701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51417,7 +51418,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="543" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C2" s="543"/>
       <c r="D2" s="543"/>
@@ -51442,15 +51443,15 @@
         <v>50</v>
       </c>
       <c r="E4" s="690" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="F4" s="690" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="684" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C5" s="685">
         <v>42560</v>
@@ -51470,7 +51471,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="684" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C6" s="685">
         <v>17400</v>
@@ -51490,7 +51491,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="684" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C7" s="685">
         <v>13868</v>
@@ -51510,7 +51511,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="684" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C8" s="685">
         <v>19754</v>
@@ -51530,7 +51531,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="684" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C9" s="685">
         <v>13540</v>
@@ -51550,7 +51551,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="684" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C10" s="685">
         <v>16500</v>
@@ -51570,7 +51571,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="684" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C11" s="685">
         <v>6996</v>
@@ -51590,7 +51591,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="684" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C12" s="687">
         <f>SUM(C5:C11)</f>
@@ -51632,7 +51633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51901,25 +51902,25 @@
   <sheetData>
     <row r="2" spans="2:4" ht="20.25">
       <c r="B2" s="933" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C2" s="933"/>
       <c r="D2" s="933"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="693" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C4" s="693" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D4" s="693" t="s">
         <v>1755</v>
-      </c>
-      <c r="C4" s="693" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D4" s="693" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="693" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="C5" s="685">
         <v>25321</v>
@@ -51931,7 +51932,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="693" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C6" s="685">
         <v>17400</v>
@@ -51943,7 +51944,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="693" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C7" s="685">
         <v>13868</v>
@@ -51955,7 +51956,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="693" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C8" s="685">
         <v>12466</v>
@@ -51967,7 +51968,7 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="693" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C9" s="685">
         <v>8005</v>
@@ -51979,7 +51980,7 @@
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1">
       <c r="B10" s="693" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C10" s="694">
         <f>SUM(C5:C9)</f>
@@ -52001,7 +52002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -52518,7 +52519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52539,7 +52540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52550,11 +52551,12 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -53453,7 +53455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -53663,7 +53665,7 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -53935,7 +53937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53964,24 +53966,24 @@
     <row r="3" spans="2:6" ht="9.75" customHeight="1" thickTop="1"/>
     <row r="4" spans="2:6" ht="16.5" customHeight="1">
       <c r="B4" s="630" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C4" s="631" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D4" s="631" t="s">
         <v>1669</v>
       </c>
-      <c r="C4" s="631" t="s">
+      <c r="E4" s="631" t="s">
         <v>1670</v>
       </c>
-      <c r="D4" s="631" t="s">
+      <c r="F4" s="631" t="s">
         <v>1671</v>
-      </c>
-      <c r="E4" s="631" t="s">
-        <v>1672</v>
-      </c>
-      <c r="F4" s="631" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="16.5" customHeight="1">
       <c r="B5" s="629" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C5" s="629">
         <v>80</v>
@@ -53996,7 +53998,7 @@
     </row>
     <row r="6" spans="2:6" ht="16.5" customHeight="1">
       <c r="B6" s="629" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C6" s="629">
         <v>85</v>
@@ -54011,7 +54013,7 @@
     </row>
     <row r="7" spans="2:6" ht="16.5" customHeight="1">
       <c r="B7" s="629" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C7" s="629">
         <v>90</v>
@@ -54026,7 +54028,7 @@
     </row>
     <row r="8" spans="2:6" ht="16.5" customHeight="1">
       <c r="B8" s="629" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C8" s="629">
         <v>65</v>
@@ -54041,7 +54043,7 @@
     </row>
     <row r="9" spans="2:6" ht="16.5" customHeight="1">
       <c r="B9" s="629" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C9" s="629">
         <v>80</v>
@@ -54056,7 +54058,7 @@
     </row>
     <row r="10" spans="2:6" ht="16.5" customHeight="1">
       <c r="B10" s="629" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C10" s="629">
         <v>58</v>
@@ -54071,7 +54073,7 @@
     </row>
     <row r="11" spans="2:6" ht="16.5" customHeight="1">
       <c r="B11" s="629" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C11" s="629">
         <v>70</v>
@@ -54086,7 +54088,7 @@
     </row>
     <row r="12" spans="2:6" ht="16.5" customHeight="1">
       <c r="B12" s="629" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C12" s="629">
         <v>80</v>
@@ -54101,7 +54103,7 @@
     </row>
     <row r="13" spans="2:6" ht="16.5" customHeight="1">
       <c r="B13" s="629" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C13" s="629">
         <v>58</v>
@@ -54116,7 +54118,7 @@
     </row>
     <row r="14" spans="2:6" ht="16.5" customHeight="1">
       <c r="B14" s="629" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C14" s="629">
         <v>60</v>
